--- a/testdatas/clusterinfo.xlsx
+++ b/testdatas/clusterinfo.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="44">
   <si>
     <t>case_id</t>
   </si>
@@ -41,7 +41,7 @@
     <t>全部字段都正常填写，下拉选择保持默认</t>
   </si>
   <si>
-    <t>{"miner_id":"f01000","domain":"https://f01000.arsyun.com","comment":"test is test","confirm":"True"}</t>
+    <t>{"miner_id":"f01000","domain":"https://f01000.arsyun.com","comment":"test is test","is_save":"True"}</t>
   </si>
   <si>
     <t>{"success_msg":"新建集群成功"}</t>
@@ -56,7 +56,7 @@
     <t>备注为空</t>
   </si>
   <si>
-    <t>{"miner_id":"f01001","domain":"https://f01001.arsyun.com","comment":"","confirm":"True"}</t>
+    <t>{"miner_id":"f01001","domain":"https://f01001.arsyun.com","comment":"","is_save":"True"}</t>
   </si>
   <si>
     <t>False</t>
@@ -68,7 +68,7 @@
     <t>域名为空</t>
   </si>
   <si>
-    <t>{"miner_id":"f01000","domain":"","comment":"test is test","confirm":"True"}</t>
+    <t>{"miner_id":"f01000","domain":"","comment":"test is test","is_save":"True"}</t>
   </si>
   <si>
     <t>{"error_msg":"请输入域名"}</t>
@@ -92,64 +92,61 @@
     <t>add-clusterinfo-008</t>
   </si>
   <si>
-    <t>edit-machineroom-001</t>
-  </si>
-  <si>
-    <t>修改机房名称</t>
-  </si>
-  <si>
-    <t>{"machineroom_name":"rename-test0001","address":"太阳系地球1号","domain":"https://opttest.arsyun.com","check":False}</t>
-  </si>
-  <si>
-    <t>{"success_msg":"编辑机房信息成功"}</t>
-  </si>
-  <si>
-    <t>edit-machineroom-002</t>
-  </si>
-  <si>
-    <t>修改机房地址</t>
-  </si>
-  <si>
-    <t>{"machineroom_name":"rename-test0001","address":"修改后太阳系地球2号","domain":"https://opttest.arsyun.com","check":False}</t>
-  </si>
-  <si>
-    <t>add-machineroom-003</t>
+    <t>edit-clusterinfo-001</t>
+  </si>
+  <si>
+    <t>修改集群ID号</t>
+  </si>
+  <si>
+    <t>{"miner_id":"f01001","custemor":"","machineroom":"","domain":"https://f01000.arsyun.com","size":"","comment":"test is test","is_save":"True"}</t>
+  </si>
+  <si>
+    <t>{"success_msg":"修改集群成功"}</t>
+  </si>
+  <si>
+    <t>edit-clusterinfo-002</t>
+  </si>
+  <si>
+    <t>修改所属客户</t>
+  </si>
+  <si>
+    <t>{"miner_id":"f01001","custemor":"1","machineroom":"","domain":"https://f01000.arsyun.com","size":"","comment":"test is test","is_save":"True"}</t>
+  </si>
+  <si>
+    <t>edit-clusterinfo-003</t>
+  </si>
+  <si>
+    <t>修改所在机房</t>
+  </si>
+  <si>
+    <t>{"miner_id":"f01001","custemor":"","machineroom":"1","domain":"https://f01000.arsyun.com","size":"","comment":"test is test","is_save":"True"}</t>
+  </si>
+  <si>
+    <t>edit-clusterinfo-004</t>
   </si>
   <si>
     <t>修改域名</t>
   </si>
   <si>
-    <t>{"machineroom_name":"rename-test0001","address":"修改后太阳系地球2号","domain":"https://wwwwwww.arsyun.com","check":False}</t>
-  </si>
-  <si>
-    <t>add-machineroom-004</t>
-  </si>
-  <si>
-    <t>勾选算力机可调度</t>
-  </si>
-  <si>
-    <t>{"machineroom_name":"rename-test0001","address":"修改后太阳系地球2号","domain":"https://wwwwwww.arsyun.com","check":True}</t>
-  </si>
-  <si>
-    <t>{"enable": True}</t>
-  </si>
-  <si>
-    <t>add-machineroom-005</t>
-  </si>
-  <si>
-    <t>去勾选算力机可调度</t>
-  </si>
-  <si>
-    <t>{"enable": False}</t>
-  </si>
-  <si>
-    <t>add-machineroom-006</t>
-  </si>
-  <si>
-    <t>add-machineroom-007</t>
-  </si>
-  <si>
-    <t>add-machineroom-008</t>
+    <t>{"miner_id":"f01001","custemor":"","machineroom":"1","domain":"https://f01001.arsyun.com","size":"","comment":"test is test","is_save":"True"}</t>
+  </si>
+  <si>
+    <t>edit-clusterinfo-005</t>
+  </si>
+  <si>
+    <t>修改山区大小</t>
+  </si>
+  <si>
+    <t>{"miner_id":"f01001","custemor":"","machineroom":"","domain":"https://f01001.arsyun.com","size":"1","comment":"test is test","is_save":"True"}</t>
+  </si>
+  <si>
+    <t>edit-clusterinfo-006</t>
+  </si>
+  <si>
+    <t>修改备注</t>
+  </si>
+  <si>
+    <t>{"miner_id":"f01001","custemor":"","machineroom":"","domain":"https://f01001.arsyun.com","size":"1","comment":"modify comment test is test","is_save":"True"}</t>
   </si>
 </sst>
 </file>
@@ -157,10 +154,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -172,28 +169,30 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -208,6 +207,58 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -216,9 +267,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -238,16 +289,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -261,55 +305,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -324,187 +321,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -518,11 +515,41 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -538,6 +565,26 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -560,58 +607,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -623,10 +620,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="4">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0">
@@ -635,133 +632,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="3">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="17" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="2">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="7">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1098,7 +1095,7 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -1261,7 +1258,7 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4:E5"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -1294,7 +1291,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" ht="27" customHeight="1" spans="1:6">
+    <row r="2" ht="40.5" spans="1:6">
       <c r="A2" t="s">
         <v>25</v>
       </c>
@@ -1308,11 +1305,11 @@
         <v>28</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F2"/>
     </row>
-    <row r="3" ht="27" customHeight="1" spans="1:6">
+    <row r="3" ht="40.5" spans="1:6">
       <c r="A3" t="s">
         <v>29</v>
       </c>
@@ -1322,15 +1319,13 @@
       <c r="C3" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D3" t="s">
-        <v>28</v>
-      </c>
+      <c r="D3"/>
       <c r="E3" s="3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F3"/>
     </row>
-    <row r="4" ht="27" customHeight="1" spans="1:6">
+    <row r="4" ht="40.5" spans="1:6">
       <c r="A4" t="s">
         <v>32</v>
       </c>
@@ -1340,15 +1335,13 @@
       <c r="C4" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D4" t="s">
-        <v>28</v>
-      </c>
+      <c r="D4"/>
       <c r="E4" s="3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F4"/>
     </row>
-    <row r="5" ht="27" customHeight="1" spans="1:6">
+    <row r="5" ht="40.5" spans="1:6">
       <c r="A5" t="s">
         <v>35</v>
       </c>
@@ -1358,66 +1351,58 @@
       <c r="C5" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5"/>
+      <c r="E5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5"/>
+    </row>
+    <row r="6" ht="40.5" spans="1:6">
+      <c r="A6" t="s">
         <v>38</v>
       </c>
-      <c r="E5" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F5"/>
-    </row>
-    <row r="6" ht="27" customHeight="1" spans="1:6">
-      <c r="A6" t="s">
+      <c r="B6" t="s">
         <v>39</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="D6"/>
+      <c r="E6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6"/>
+    </row>
+    <row r="7" ht="40.5" spans="1:6">
+      <c r="A7" t="s">
         <v>41</v>
       </c>
-      <c r="E6" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F6"/>
-    </row>
-    <row r="7" ht="27" customHeight="1" spans="1:6">
-      <c r="A7" t="s">
+      <c r="B7" t="s">
         <v>42</v>
       </c>
-      <c r="B7"/>
-      <c r="C7" s="2"/>
+      <c r="C7" s="2" t="s">
+        <v>43</v>
+      </c>
       <c r="D7"/>
       <c r="E7" s="3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F7"/>
     </row>
-    <row r="8" ht="27" customHeight="1" spans="1:6">
-      <c r="A8" t="s">
-        <v>43</v>
-      </c>
+    <row r="8" ht="44" customHeight="1" spans="1:6">
+      <c r="A8"/>
       <c r="B8"/>
       <c r="C8" s="2"/>
       <c r="D8"/>
-      <c r="E8" s="3" t="s">
-        <v>14</v>
-      </c>
+      <c r="E8" s="3"/>
       <c r="F8"/>
     </row>
     <row r="9" ht="27" customHeight="1" spans="1:6">
-      <c r="A9" t="s">
-        <v>44</v>
-      </c>
+      <c r="A9"/>
       <c r="B9"/>
       <c r="C9" s="2"/>
       <c r="D9"/>
-      <c r="E9" s="3" t="s">
-        <v>14</v>
-      </c>
+      <c r="E9" s="3"/>
       <c r="F9"/>
     </row>
   </sheetData>

--- a/testdatas/clusterinfo.xlsx
+++ b/testdatas/clusterinfo.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="45">
   <si>
     <t>case_id</t>
   </si>
@@ -56,30 +56,33 @@
     <t>备注为空</t>
   </si>
   <si>
-    <t>{"miner_id":"f01001","domain":"https://f01001.arsyun.com","comment":"","is_save":"True"}</t>
+    <t>{"miner_id":"f02000","domain":"https://f02000.arsyun.com","comment":"","is_save":"True"}</t>
+  </si>
+  <si>
+    <t>add-clusterinfo-003</t>
+  </si>
+  <si>
+    <t>域名为空</t>
+  </si>
+  <si>
+    <t>{"miner_id":"f03000","domain":"","comment":"test is test","is_save":"True"}</t>
+  </si>
+  <si>
+    <t>{"error_msg":"请输入域名"}</t>
+  </si>
+  <si>
+    <t>add-clusterinfo-004</t>
+  </si>
+  <si>
+    <t>创建64G集群</t>
+  </si>
+  <si>
+    <t>{"miner_id":"f04000","domain":"https://f04000.arsyun.com","comment":"test is test","is_save":"True"}</t>
   </si>
   <si>
     <t>False</t>
   </si>
   <si>
-    <t>add-clusterinfo-003</t>
-  </si>
-  <si>
-    <t>域名为空</t>
-  </si>
-  <si>
-    <t>{"miner_id":"f01000","domain":"","comment":"test is test","is_save":"True"}</t>
-  </si>
-  <si>
-    <t>{"error_msg":"请输入域名"}</t>
-  </si>
-  <si>
-    <t>add-clusterinfo-004</t>
-  </si>
-  <si>
-    <t>创建64G集群</t>
-  </si>
-  <si>
     <t>add-clusterinfo-005</t>
   </si>
   <si>
@@ -101,7 +104,7 @@
     <t>{"miner_id":"f01001","custemor":"","machineroom":"","domain":"https://f01000.arsyun.com","size":"","comment":"test is test","is_save":"True"}</t>
   </si>
   <si>
-    <t>{"success_msg":"修改集群成功"}</t>
+    <t>{"msg":"修改集群成功"}</t>
   </si>
   <si>
     <t>edit-clusterinfo-002</t>
@@ -128,7 +131,7 @@
     <t>修改域名</t>
   </si>
   <si>
-    <t>{"miner_id":"f01001","custemor":"","machineroom":"1","domain":"https://f01001.arsyun.com","size":"","comment":"test is test","is_save":"True"}</t>
+    <t>{"miner_id":"f01001","custemor":"","machineroom":"","domain":"https://f01001.arsyun.com","size":"","comment":"test is test","is_save":"True"}</t>
   </si>
   <si>
     <t>edit-clusterinfo-005</t>
@@ -168,6 +171,43 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
@@ -175,9 +215,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -191,8 +230,33 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -207,91 +271,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -305,8 +285,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -321,19 +324,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -345,49 +468,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -399,103 +498,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -526,54 +529,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -604,6 +559,54 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -620,10 +623,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="4">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="4">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0">
@@ -632,133 +635,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="7">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1095,7 +1098,7 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -1160,89 +1163,89 @@
         <v>9</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F3"/>
     </row>
     <row r="4" ht="27" customHeight="1" spans="1:6">
       <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" t="s">
         <v>15</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="D4" t="s">
         <v>17</v>
       </c>
-      <c r="D4" t="s">
-        <v>18</v>
-      </c>
       <c r="E4" s="3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F4"/>
     </row>
     <row r="5" ht="27" customHeight="1" spans="1:6">
       <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" t="s">
         <v>19</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>8</v>
       </c>
       <c r="D5"/>
       <c r="E5" s="3" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="F5"/>
     </row>
     <row r="6" ht="27" customHeight="1" spans="1:6">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B6"/>
       <c r="C6" s="2"/>
       <c r="D6"/>
       <c r="E6" s="3" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="F6"/>
     </row>
     <row r="7" ht="27" customHeight="1" spans="1:6">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B7"/>
       <c r="C7" s="2"/>
       <c r="D7"/>
       <c r="E7" s="3" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="F7"/>
     </row>
     <row r="8" ht="27" customHeight="1" spans="1:6">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B8"/>
       <c r="C8" s="2"/>
       <c r="D8"/>
       <c r="E8" s="3" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="F8"/>
     </row>
     <row r="9" ht="27" customHeight="1" spans="1:6">
       <c r="A9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B9"/>
       <c r="C9" s="2"/>
       <c r="D9"/>
       <c r="E9" s="3" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="F9"/>
     </row>
@@ -1258,7 +1261,7 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -1293,16 +1296,16 @@
     </row>
     <row r="2" ht="40.5" spans="1:6">
       <c r="A2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>10</v>
@@ -1311,13 +1314,13 @@
     </row>
     <row r="3" ht="40.5" spans="1:6">
       <c r="A3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D3"/>
       <c r="E3" s="3" t="s">
@@ -1327,13 +1330,13 @@
     </row>
     <row r="4" ht="40.5" spans="1:6">
       <c r="A4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D4"/>
       <c r="E4" s="3" t="s">
@@ -1343,13 +1346,13 @@
     </row>
     <row r="5" ht="40.5" spans="1:6">
       <c r="A5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D5"/>
       <c r="E5" s="3" t="s">
@@ -1359,13 +1362,13 @@
     </row>
     <row r="6" ht="40.5" spans="1:6">
       <c r="A6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D6"/>
       <c r="E6" s="3" t="s">
@@ -1375,13 +1378,13 @@
     </row>
     <row r="7" ht="40.5" spans="1:6">
       <c r="A7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D7"/>
       <c r="E7" s="3" t="s">

--- a/testdatas/clusterinfo.xlsx
+++ b/testdatas/clusterinfo.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView windowWidth="27870" windowHeight="13140" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="新建集群信息" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="49">
   <si>
     <t>case_id</t>
   </si>
@@ -29,22 +29,31 @@
     <t>expect</t>
   </si>
   <si>
+    <t>text_location</t>
+  </si>
+  <si>
     <t>execute</t>
   </si>
   <si>
     <t>testresult</t>
   </si>
   <si>
+    <t>reason</t>
+  </si>
+  <si>
     <t>add-clusterinfo-001</t>
   </si>
   <si>
     <t>全部字段都正常填写，下拉选择保持默认</t>
   </si>
   <si>
-    <t>{"miner_id":"f01000","domain":"https://f01000.arsyun.com","comment":"test is test","is_save":"True"}</t>
-  </si>
-  <si>
-    <t>{"success_msg":"新建集群成功"}</t>
+    <t>{"miner_id":"f01000","customer":"内部","machineroom":"先河机房","domain":"https://f01000.arsyun.com","size":"64G","comment":"test by terry","is_save":"True"}</t>
+  </si>
+  <si>
+    <t>{"msg":"新建集群 成功"}</t>
+  </si>
+  <si>
+    <t>{"type":"xpath","location":"//span[text()='新建集群成功']"}</t>
   </si>
   <si>
     <t>True</t>
@@ -56,7 +65,13 @@
     <t>备注为空</t>
   </si>
   <si>
-    <t>{"miner_id":"f02000","domain":"https://f02000.arsyun.com","comment":"","is_save":"True"}</t>
+    <t>{"miner_id":"f02000","customer":"test001","machineroom":"先河机房","domain":"https://f02000.arsyun.com","size":"64G","comment":"","is_save":"True"}</t>
+  </si>
+  <si>
+    <t>{"msg":"新建集群成功"}</t>
+  </si>
+  <si>
+    <t>False</t>
   </si>
   <si>
     <t>add-clusterinfo-003</t>
@@ -65,10 +80,10 @@
     <t>域名为空</t>
   </si>
   <si>
-    <t>{"miner_id":"f03000","domain":"","comment":"test is test","is_save":"True"}</t>
-  </si>
-  <si>
-    <t>{"error_msg":"请输入域名"}</t>
+    <t>{"miner_id":"f03000","customer":"test001","machineroom":"先河机房","domain":"https://f03000.arsyun.com","size":"64G","comment":"test by terryt","is_save":"True"}</t>
+  </si>
+  <si>
+    <t>{"errmsg":"请输入域名"}</t>
   </si>
   <si>
     <t>add-clusterinfo-004</t>
@@ -77,22 +92,13 @@
     <t>创建64G集群</t>
   </si>
   <si>
-    <t>{"miner_id":"f04000","domain":"https://f04000.arsyun.com","comment":"test is test","is_save":"True"}</t>
-  </si>
-  <si>
-    <t>False</t>
-  </si>
-  <si>
-    <t>add-clusterinfo-005</t>
-  </si>
-  <si>
-    <t>add-clusterinfo-006</t>
-  </si>
-  <si>
-    <t>add-clusterinfo-007</t>
-  </si>
-  <si>
-    <t>add-clusterinfo-008</t>
+    <t>{"miner_id":"f04000","customer":"test001","machineroom":"先河机房","domain":"https://f04000.arsyun.com","size":"64G","comment":"test by terry","is_save":"True"}</t>
+  </si>
+  <si>
+    <t>Failed</t>
+  </si>
+  <si>
+    <t>预期结果 != 实际结果 ===&gt;&gt; 编辑集群成功1 != 编辑集群成功</t>
   </si>
   <si>
     <t>edit-clusterinfo-001</t>
@@ -101,10 +107,16 @@
     <t>修改集群ID号</t>
   </si>
   <si>
-    <t>{"miner_id":"f01001","custemor":"","machineroom":"","domain":"https://f01000.arsyun.com","size":"","comment":"test is test","is_save":"True"}</t>
-  </si>
-  <si>
-    <t>{"msg":"修改集群成功"}</t>
+    <t>{"msg":"编辑集群成功"}</t>
+  </si>
+  <si>
+    <t>{"xpath":"//span[text()='编辑集群成功']"}</t>
+  </si>
+  <si>
+    <t>PASS</t>
+  </si>
+  <si>
+    <t>[]</t>
   </si>
   <si>
     <t>edit-clusterinfo-002</t>
@@ -113,7 +125,10 @@
     <t>修改所属客户</t>
   </si>
   <si>
-    <t>{"miner_id":"f01001","custemor":"1","machineroom":"","domain":"https://f01000.arsyun.com","size":"","comment":"test is test","is_save":"True"}</t>
+    <t>{"miner_id":"f01000","customer":"test001","machineroom":"先河机房","domain":"https://f01000.arsyun.com","size":"64G","comment":"test by terry","is_save":"True"}</t>
+  </si>
+  <si>
+    <t>{"msg":"编辑集群成功1"}</t>
   </si>
   <si>
     <t>edit-clusterinfo-003</t>
@@ -122,16 +137,13 @@
     <t>修改所在机房</t>
   </si>
   <si>
-    <t>{"miner_id":"f01001","custemor":"","machineroom":"1","domain":"https://f01000.arsyun.com","size":"","comment":"test is test","is_save":"True"}</t>
-  </si>
-  <si>
     <t>edit-clusterinfo-004</t>
   </si>
   <si>
     <t>修改域名</t>
   </si>
   <si>
-    <t>{"miner_id":"f01001","custemor":"","machineroom":"","domain":"https://f01001.arsyun.com","size":"","comment":"test is test","is_save":"True"}</t>
+    <t>{"miner_id":"f01000","customer":"test001","machineroom":"先河机房","domain":"https://f01000-01.arsyun.com","size":"64G","comment":"test by terry","is_save":"True"}</t>
   </si>
   <si>
     <t>edit-clusterinfo-005</t>
@@ -140,16 +152,16 @@
     <t>修改山区大小</t>
   </si>
   <si>
-    <t>{"miner_id":"f01001","custemor":"","machineroom":"","domain":"https://f01001.arsyun.com","size":"1","comment":"test is test","is_save":"True"}</t>
+    <t>{"msg1":"编辑集群成功"}</t>
+  </si>
+  <si>
+    <t>{"xpath1":"//span[text()='编辑集群成功']"}</t>
   </si>
   <si>
     <t>edit-clusterinfo-006</t>
   </si>
   <si>
     <t>修改备注</t>
-  </si>
-  <si>
-    <t>{"miner_id":"f01001","custemor":"","machineroom":"","domain":"https://f01001.arsyun.com","size":"1","comment":"modify comment test is test","is_save":"True"}</t>
   </si>
 </sst>
 </file>
@@ -157,10 +169,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -171,14 +183,65 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -186,37 +249,48 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -230,17 +304,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -248,68 +321,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -324,187 +336,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -518,17 +530,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -559,17 +571,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -577,8 +583,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -607,11 +613,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -623,10 +635,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="4">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0">
@@ -635,7 +647,7 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="10" borderId="0">
@@ -644,124 +656,124 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="7">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="8">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="22" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="29" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0">
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="32" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1095,23 +1107,24 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView zoomScaleSheetLayoutView="60" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="21.5" style="1" customWidth="1"/>
     <col min="2" max="2" width="34.875" style="1" customWidth="1"/>
     <col min="3" max="3" width="66.5" style="1" customWidth="1"/>
-    <col min="4" max="4" width="62.375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="14.875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="11.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="25.25" style="1" customWidth="1"/>
+    <col min="5" max="5" width="60.75" style="1" customWidth="1"/>
+    <col min="6" max="6" width="14.875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="17" customHeight="1" spans="1:6">
+    <row r="1" ht="17" customHeight="1" spans="1:8">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1130,124 +1143,130 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" ht="27" customHeight="1" spans="1:6">
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" ht="40.5" customHeight="1" spans="1:6">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2"/>
-    </row>
-    <row r="3" ht="27" customHeight="1" spans="1:6">
+        <v>11</v>
+      </c>
+      <c r="E2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" ht="40.5" customHeight="1" spans="1:7">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3"/>
-    </row>
-    <row r="4" ht="27" customHeight="1" spans="1:6">
+        <v>17</v>
+      </c>
+      <c r="E3"/>
+      <c r="F3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3"/>
+    </row>
+    <row r="4" ht="40.5" customHeight="1" spans="1:7">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4"/>
+      <c r="F4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4"/>
+    </row>
+    <row r="5" ht="40.5" customHeight="1" spans="1:7">
+      <c r="A5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4"/>
-    </row>
-    <row r="5" ht="27" customHeight="1" spans="1:6">
-      <c r="A5" t="s">
+      <c r="E5"/>
+      <c r="F5" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5"/>
-      <c r="E5" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F5"/>
-    </row>
-    <row r="6" ht="27" customHeight="1" spans="1:6">
-      <c r="A6" t="s">
-        <v>22</v>
-      </c>
+      <c r="G5"/>
+    </row>
+    <row r="6" ht="27" customHeight="1" spans="1:7">
+      <c r="A6"/>
       <c r="B6"/>
       <c r="C6" s="2"/>
       <c r="D6"/>
-      <c r="E6" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F6"/>
-    </row>
-    <row r="7" ht="27" customHeight="1" spans="1:6">
-      <c r="A7" t="s">
-        <v>23</v>
-      </c>
+      <c r="E6"/>
+      <c r="F6" s="3"/>
+      <c r="G6"/>
+    </row>
+    <row r="7" ht="27" customHeight="1" spans="1:7">
+      <c r="A7"/>
       <c r="B7"/>
       <c r="C7" s="2"/>
       <c r="D7"/>
-      <c r="E7" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F7"/>
-    </row>
-    <row r="8" ht="27" customHeight="1" spans="1:6">
-      <c r="A8" t="s">
-        <v>24</v>
-      </c>
+      <c r="E7"/>
+      <c r="F7" s="3"/>
+      <c r="G7"/>
+    </row>
+    <row r="8" ht="27" customHeight="1" spans="1:7">
+      <c r="A8"/>
       <c r="B8"/>
       <c r="C8" s="2"/>
       <c r="D8"/>
-      <c r="E8" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F8"/>
-    </row>
-    <row r="9" ht="27" customHeight="1" spans="1:6">
-      <c r="A9" t="s">
-        <v>25</v>
-      </c>
+      <c r="E8"/>
+      <c r="F8" s="3"/>
+      <c r="G8"/>
+    </row>
+    <row r="9" ht="27" customHeight="1" spans="1:8">
+      <c r="A9"/>
       <c r="B9"/>
       <c r="C9" s="2"/>
       <c r="D9"/>
-      <c r="E9" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F9"/>
+      <c r="E9"/>
+      <c r="F9" s="3"/>
+      <c r="G9" t="s">
+        <v>26</v>
+      </c>
+      <c r="H9" t="s">
+        <v>27</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1258,23 +1277,25 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="21.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="34.875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="13.125" style="1" customWidth="1"/>
     <col min="3" max="3" width="66.5" style="1" customWidth="1"/>
-    <col min="4" max="4" width="62.375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="14.875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="11.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="24" style="1" customWidth="1"/>
+    <col min="5" max="5" width="45.125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="14.875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="11.5" style="1" customWidth="1"/>
+    <col min="8" max="8" width="86.375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="17" customHeight="1" spans="1:6">
+    <row r="1" ht="17" customHeight="1" spans="1:8">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1293,120 +1314,155 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" ht="40.5" spans="1:6">
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" ht="40.5" customHeight="1" spans="1:8">
       <c r="A2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2"/>
-    </row>
-    <row r="3" ht="40.5" spans="1:6">
+        <v>30</v>
+      </c>
+      <c r="E2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" ht="40.5" customHeight="1" spans="1:8">
       <c r="A3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3"/>
+      <c r="H3"/>
+    </row>
+    <row r="4" ht="40.5" customHeight="1" spans="1:7">
+      <c r="A4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4"/>
+      <c r="E4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4"/>
+    </row>
+    <row r="5" ht="40.5" customHeight="1" spans="1:7">
+      <c r="A5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D5" t="s">
         <v>30</v>
       </c>
-      <c r="B3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C3" s="2" t="s">
+      <c r="E5"/>
+      <c r="F5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5"/>
+    </row>
+    <row r="6" ht="67.5" customHeight="1" spans="1:8">
+      <c r="A6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" t="s">
         <v>32</v>
       </c>
-      <c r="D3"/>
-      <c r="E3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3"/>
-    </row>
-    <row r="4" ht="40.5" spans="1:6">
-      <c r="A4" t="s">
+      <c r="H6" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D4"/>
-      <c r="E4" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4"/>
-    </row>
-    <row r="5" ht="40.5" spans="1:6">
-      <c r="A5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B5" t="s">
-        <v>37</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D5"/>
-      <c r="E5" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5"/>
-    </row>
-    <row r="6" ht="40.5" spans="1:6">
-      <c r="A6" t="s">
-        <v>39</v>
-      </c>
-      <c r="B6" t="s">
-        <v>40</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D6"/>
-      <c r="E6" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F6"/>
-    </row>
-    <row r="7" ht="40.5" spans="1:6">
+    </row>
+    <row r="7" ht="40.5" customHeight="1" spans="1:7">
       <c r="A7" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B7" t="s">
-        <v>43</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>44</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="C7" s="2"/>
       <c r="D7"/>
-      <c r="E7" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F7"/>
-    </row>
-    <row r="8" ht="44" customHeight="1" spans="1:6">
+      <c r="E7"/>
+      <c r="F7" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7"/>
+    </row>
+    <row r="8" ht="44" customHeight="1" spans="1:7">
       <c r="A8"/>
       <c r="B8"/>
       <c r="C8" s="2"/>
       <c r="D8"/>
-      <c r="E8" s="3"/>
-      <c r="F8"/>
-    </row>
-    <row r="9" ht="27" customHeight="1" spans="1:6">
+      <c r="E8"/>
+      <c r="F8" s="3"/>
+      <c r="G8"/>
+    </row>
+    <row r="9" ht="27" customHeight="1" spans="1:7">
       <c r="A9"/>
       <c r="B9"/>
       <c r="C9" s="2"/>
       <c r="D9"/>
-      <c r="E9" s="3"/>
-      <c r="F9"/>
+      <c r="E9"/>
+      <c r="F9" s="3"/>
+      <c r="G9"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/testdatas/clusterinfo.xlsx
+++ b/testdatas/clusterinfo.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="49">
   <si>
     <t>case_id</t>
   </si>
@@ -101,34 +101,34 @@
     <t>预期结果 != 实际结果 ===&gt;&gt; 编辑集群成功1 != 编辑集群成功</t>
   </si>
   <si>
+    <t>title</t>
+  </si>
+  <si>
     <t>edit-clusterinfo-001</t>
   </si>
   <si>
     <t>修改集群ID号</t>
   </si>
   <si>
+    <t>{"miner_id":"f0100011","customer":"内部","machineroom":"先河机房","domain":"https://f01000.arsyun.com","size":"64G","comment":"test by terry","is_save":"True"}</t>
+  </si>
+  <si>
+    <t>{"msg":"编辑集群成功1"}</t>
+  </si>
+  <si>
+    <t>{"xpath":"//span[text()='编辑集群成功']"}</t>
+  </si>
+  <si>
+    <t>edit-clusterinfo-002</t>
+  </si>
+  <si>
+    <t>修改所属客户</t>
+  </si>
+  <si>
+    <t>{"miner_id":"f01000","customer":"test001","machineroom":"先河机房","domain":"https://f01000.arsyun.com","size":"64G","comment":"test by terry","is_save":"True"}</t>
+  </si>
+  <si>
     <t>{"msg":"编辑集群成功"}</t>
-  </si>
-  <si>
-    <t>{"xpath":"//span[text()='编辑集群成功']"}</t>
-  </si>
-  <si>
-    <t>PASS</t>
-  </si>
-  <si>
-    <t>[]</t>
-  </si>
-  <si>
-    <t>edit-clusterinfo-002</t>
-  </si>
-  <si>
-    <t>修改所属客户</t>
-  </si>
-  <si>
-    <t>{"miner_id":"f01000","customer":"test001","machineroom":"先河机房","domain":"https://f01000.arsyun.com","size":"64G","comment":"test by terry","is_save":"True"}</t>
-  </si>
-  <si>
-    <t>{"msg":"编辑集群成功1"}</t>
   </si>
   <si>
     <t>edit-clusterinfo-003</t>
@@ -169,9 +169,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -184,6 +184,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -191,6 +206,20 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -198,75 +227,69 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -281,22 +304,6 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -304,8 +311,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -313,15 +321,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -336,19 +336,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -360,31 +390,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -396,13 +486,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -414,109 +504,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -527,6 +527,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -541,17 +556,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -574,15 +578,6 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -598,17 +593,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -627,6 +616,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -635,10 +635,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="2">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0">
@@ -647,133 +647,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="3">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="17" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="7">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="8">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="19" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1280,7 +1280,7 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -1300,7 +1300,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="C1" t="s">
         <v>2</v>
@@ -1314,38 +1314,30 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
+      <c r="G1"/>
+      <c r="H1"/>
     </row>
     <row r="2" ht="40.5" customHeight="1" spans="1:8">
       <c r="A2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="D2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G2" t="s">
-        <v>32</v>
-      </c>
-      <c r="H2" t="s">
-        <v>33</v>
-      </c>
+      <c r="G2"/>
+      <c r="H2"/>
     </row>
     <row r="3" ht="40.5" customHeight="1" spans="1:8">
       <c r="A3" t="s">
@@ -1361,10 +1353,10 @@
         <v>37</v>
       </c>
       <c r="E3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="G3"/>
       <c r="H3"/>
@@ -1379,7 +1371,7 @@
       <c r="C4" s="2"/>
       <c r="D4"/>
       <c r="E4" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>18</v>
@@ -1397,7 +1389,7 @@
         <v>42</v>
       </c>
       <c r="D5" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="E5"/>
       <c r="F5" s="3" t="s">
@@ -1422,14 +1414,10 @@
         <v>46</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G6" t="s">
-        <v>32</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>33</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G6"/>
+      <c r="H6" s="2"/>
     </row>
     <row r="7" ht="40.5" customHeight="1" spans="1:7">
       <c r="A7" t="s">

--- a/testdatas/clusterinfo.xlsx
+++ b/testdatas/clusterinfo.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="57">
   <si>
     <t>case_id</t>
   </si>
@@ -35,25 +35,19 @@
     <t>execute</t>
   </si>
   <si>
-    <t>testresult</t>
-  </si>
-  <si>
-    <t>reason</t>
-  </si>
-  <si>
     <t>add-clusterinfo-001</t>
   </si>
   <si>
     <t>全部字段都正常填写，下拉选择保持默认</t>
   </si>
   <si>
-    <t>{"miner_id":"f01000","customer":"内部","machineroom":"先河机房","domain":"https://f01000.arsyun.com","size":"64G","comment":"test by terry","is_save":"True"}</t>
-  </si>
-  <si>
-    <t>{"msg":"新建集群 成功"}</t>
-  </si>
-  <si>
-    <t>{"type":"xpath","location":"//span[text()='新建集群成功']"}</t>
+    <t>{"miner_id":"f010000","customer":"内部","machineroom":"machineroom0002","domain":"https://f010000.arsyun.com","size":"32G","comment":"test by terry","is_save":"True"}</t>
+  </si>
+  <si>
+    <t>{"msg":"新建集群成功"}</t>
+  </si>
+  <si>
+    <t>{"xpath":"//span[text()='新建集群成功']"}</t>
   </si>
   <si>
     <t>True</t>
@@ -65,40 +59,70 @@
     <t>备注为空</t>
   </si>
   <si>
-    <t>{"miner_id":"f02000","customer":"test001","machineroom":"先河机房","domain":"https://f02000.arsyun.com","size":"64G","comment":"","is_save":"True"}</t>
-  </si>
-  <si>
-    <t>{"msg":"新建集群成功"}</t>
-  </si>
-  <si>
-    <t>False</t>
+    <t>{"miner_id":"f020000","customer":"内部","machineroom":"machineroom0002","domain":"https://f020000.arsyun.com","size":"32G","comment":"","is_save":"True"}</t>
   </si>
   <si>
     <t>add-clusterinfo-003</t>
   </si>
   <si>
+    <t>创建64G集群</t>
+  </si>
+  <si>
+    <t>{"miner_id":"f030000","customer":"内部","machineroom":"machineroom0002","domain":"https://f030000.arsyun.com","size":"64G","comment":"test by terry","is_save":"True"}</t>
+  </si>
+  <si>
+    <t>add-clusterinfo-004</t>
+  </si>
+  <si>
+    <t>域名重复</t>
+  </si>
+  <si>
+    <t>{"miner_id":"f050000","customer":"内部","machineroom":"machineroom0002","domain":"https://f010000.arsyun.com","size":"32G","comment":"test by terry","is_save":"True"}</t>
+  </si>
+  <si>
+    <t>add-clusterinfo-005</t>
+  </si>
+  <si>
     <t>域名为空</t>
   </si>
   <si>
-    <t>{"miner_id":"f03000","customer":"test001","machineroom":"先河机房","domain":"https://f03000.arsyun.com","size":"64G","comment":"test by terryt","is_save":"True"}</t>
-  </si>
-  <si>
-    <t>{"errmsg":"请输入域名"}</t>
-  </si>
-  <si>
-    <t>add-clusterinfo-004</t>
-  </si>
-  <si>
-    <t>创建64G集群</t>
-  </si>
-  <si>
-    <t>{"miner_id":"f04000","customer":"test001","machineroom":"先河机房","domain":"https://f04000.arsyun.com","size":"64G","comment":"test by terry","is_save":"True"}</t>
-  </si>
-  <si>
-    <t>Failed</t>
-  </si>
-  <si>
-    <t>预期结果 != 实际结果 ===&gt;&gt; 编辑集群成功1 != 编辑集群成功</t>
+    <t>{"miner_id":"f050000","customer":"内部","machineroom":"machineroom0002","domain":"","size":"32G","comment":"test by terry","is_save":"True"}</t>
+  </si>
+  <si>
+    <t>{"msg":"请输入域名"}</t>
+  </si>
+  <si>
+    <t>{"xpath":"//div[text()='请输入域名']"}</t>
+  </si>
+  <si>
+    <t>add-clusterinfo-006</t>
+  </si>
+  <si>
+    <t>集群ID为空</t>
+  </si>
+  <si>
+    <t>{"miner_id":"","customer":"内部","machineroom":"machineroom0002","domain":"https://f010000.arsyun.com","size":"32G","comment":"test by terry","is_save":"True"}</t>
+  </si>
+  <si>
+    <t>{"msg":"请输入集群ID"}</t>
+  </si>
+  <si>
+    <t>{"xpath":"//div[text()='请输入集群ID']"}</t>
+  </si>
+  <si>
+    <t>add-clusterinfo-007</t>
+  </si>
+  <si>
+    <t>集群ID为空,域名为空</t>
+  </si>
+  <si>
+    <t>{"miner_id":"","customer":"内部","machineroom":"machineroom0002","domain":"","size":"32G","comment":"test by terry","is_save":"True"}</t>
+  </si>
+  <si>
+    <t>{"msg1":"请输入域名","msg2":"请输入集群ID"}</t>
+  </si>
+  <si>
+    <t>{"xpath1":"//div[text()='请输入域名']","xpath2":"//div[text()='请输入集群ID']"}</t>
   </si>
   <si>
     <t>title</t>
@@ -110,10 +134,10 @@
     <t>修改集群ID号</t>
   </si>
   <si>
-    <t>{"miner_id":"f0100011","customer":"内部","machineroom":"先河机房","domain":"https://f01000.arsyun.com","size":"64G","comment":"test by terry","is_save":"True"}</t>
-  </si>
-  <si>
-    <t>{"msg":"编辑集群成功1"}</t>
+    <t>{"miner_id":"f01000011","customer":"内部","machineroom":"machineroom0002","domain":"https://f010000.arsyun.com","size":"32G","comment":"test by terry","is_save":"True"}</t>
+  </si>
+  <si>
+    <t>{"msg":"编辑集群成功"}</t>
   </si>
   <si>
     <t>{"xpath":"//span[text()='编辑集群成功']"}</t>
@@ -125,10 +149,7 @@
     <t>修改所属客户</t>
   </si>
   <si>
-    <t>{"miner_id":"f01000","customer":"test001","machineroom":"先河机房","domain":"https://f01000.arsyun.com","size":"64G","comment":"test by terry","is_save":"True"}</t>
-  </si>
-  <si>
-    <t>{"msg":"编辑集群成功"}</t>
+    <t>{"miner_id":"f01000011","customer":"test001","machineroom":"machineroom0002","domain":"https://f010000.arsyun.com","size":"32G","comment":"test by terry","is_save":"True"}</t>
   </si>
   <si>
     <t>edit-clusterinfo-003</t>
@@ -137,31 +158,34 @@
     <t>修改所在机房</t>
   </si>
   <si>
+    <t>{"miner_id":"f01000011","customer":"test001","machineroom":"machineroom0003","domain":"https://f010000.arsyun.com","size":"32G","comment":"test by terry","is_save":"True"}</t>
+  </si>
+  <si>
     <t>edit-clusterinfo-004</t>
   </si>
   <si>
     <t>修改域名</t>
   </si>
   <si>
-    <t>{"miner_id":"f01000","customer":"test001","machineroom":"先河机房","domain":"https://f01000-01.arsyun.com","size":"64G","comment":"test by terry","is_save":"True"}</t>
+    <t>{"miner_id":"f01000011","customer":"test001","machineroom":"machineroom0003","domain":"https://f0100001111.arsyun.com","size":"32G","comment":"test by terry","is_save":"True"}</t>
   </si>
   <si>
     <t>edit-clusterinfo-005</t>
   </si>
   <si>
-    <t>修改山区大小</t>
-  </si>
-  <si>
-    <t>{"msg1":"编辑集群成功"}</t>
-  </si>
-  <si>
-    <t>{"xpath1":"//span[text()='编辑集群成功']"}</t>
+    <t>修改扇区大小</t>
+  </si>
+  <si>
+    <t>{"miner_id":"f01000011","customer":"test001","machineroom":"machineroom0003","domain":"https://f0100001111.arsyun.com","size":"64G","comment":"test by terry","is_save":"True"}</t>
   </si>
   <si>
     <t>edit-clusterinfo-006</t>
   </si>
   <si>
     <t>修改备注</t>
+  </si>
+  <si>
+    <t>{"miner_id":"f01000011","customer":"test001","machineroom":"machineroom0003","domain":"https://f0100001111.arsyun.com","size":"64G","comment":"modify test by terry","is_save":"True"}</t>
   </si>
 </sst>
 </file>
@@ -184,6 +208,28 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -192,14 +238,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -213,62 +259,32 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -313,6 +329,14 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -321,7 +345,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -336,91 +360,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -432,91 +516,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -530,17 +554,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -588,7 +608,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -597,7 +617,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -616,17 +651,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -635,10 +659,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="2">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="2">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0">
@@ -647,16 +671,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
@@ -668,10 +692,13 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
@@ -683,97 +710,94 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="2">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="7">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="8">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="28" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0">
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="29" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1107,13 +1131,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="21.5" style="1" customWidth="1"/>
     <col min="2" max="2" width="34.875" style="1" customWidth="1"/>
@@ -1124,7 +1148,7 @@
     <col min="7" max="7" width="12.875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="17" customHeight="1" spans="1:8">
+    <row r="1" ht="17" customHeight="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1143,130 +1167,162 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
+      <c r="G1"/>
     </row>
     <row r="2" ht="40.5" customHeight="1" spans="1:6">
       <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D2" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="E2" t="s">
         <v>10</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F2" s="3" t="s">
         <v>11</v>
-      </c>
-      <c r="E2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" ht="40.5" customHeight="1" spans="1:7">
       <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>16</v>
-      </c>
       <c r="D3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3"/>
+        <v>9</v>
+      </c>
+      <c r="E3" t="s">
+        <v>10</v>
+      </c>
       <c r="F3" s="3" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="G3"/>
     </row>
     <row r="4" ht="40.5" customHeight="1" spans="1:7">
       <c r="A4" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E4"/>
+        <v>9</v>
+      </c>
+      <c r="E4" t="s">
+        <v>10</v>
+      </c>
       <c r="F4" s="3" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="G4"/>
     </row>
     <row r="5" ht="40.5" customHeight="1" spans="1:7">
       <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5"/>
+    </row>
+    <row r="6" ht="40.5" customHeight="1" spans="1:7">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B5" t="s">
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="E6" t="s">
         <v>25</v>
       </c>
-      <c r="D5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5"/>
-      <c r="F5" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5"/>
-    </row>
-    <row r="6" ht="27" customHeight="1" spans="1:7">
-      <c r="A6"/>
-      <c r="B6"/>
-      <c r="C6" s="2"/>
-      <c r="D6"/>
-      <c r="E6"/>
-      <c r="F6" s="3"/>
+      <c r="F6" s="3" t="s">
+        <v>11</v>
+      </c>
       <c r="G6"/>
     </row>
-    <row r="7" ht="27" customHeight="1" spans="1:7">
-      <c r="A7"/>
-      <c r="B7"/>
-      <c r="C7" s="2"/>
-      <c r="D7"/>
-      <c r="E7"/>
-      <c r="F7" s="3"/>
+    <row r="7" ht="40.5" spans="1:7">
+      <c r="A7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>11</v>
+      </c>
       <c r="G7"/>
     </row>
-    <row r="8" ht="27" customHeight="1" spans="1:7">
-      <c r="A8"/>
-      <c r="B8"/>
-      <c r="C8" s="2"/>
-      <c r="D8"/>
-      <c r="E8"/>
-      <c r="F8" s="3"/>
+    <row r="8" ht="40.5" spans="1:7">
+      <c r="A8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>11</v>
+      </c>
       <c r="G8"/>
     </row>
-    <row r="9" ht="27" customHeight="1" spans="1:8">
+    <row r="9" ht="27" customHeight="1" spans="1:7">
       <c r="A9"/>
       <c r="B9"/>
       <c r="C9" s="2"/>
       <c r="D9"/>
       <c r="E9"/>
       <c r="F9" s="3"/>
-      <c r="G9" t="s">
-        <v>26</v>
-      </c>
-      <c r="H9" t="s">
-        <v>27</v>
-      </c>
+      <c r="G9"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1280,7 +1336,7 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="F3" sqref="F3:F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -1300,7 +1356,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="C1" t="s">
         <v>2</v>
@@ -1317,120 +1373,132 @@
       <c r="G1"/>
       <c r="H1"/>
     </row>
-    <row r="2" ht="40.5" customHeight="1" spans="1:8">
+    <row r="2" ht="40.5" spans="1:8">
       <c r="A2" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="B2" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="D2" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="E2" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G2"/>
       <c r="H2"/>
     </row>
-    <row r="3" ht="40.5" customHeight="1" spans="1:8">
+    <row r="3" ht="40.5" spans="1:8">
       <c r="A3" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="B3" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="D3" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="E3" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G3"/>
       <c r="H3"/>
     </row>
-    <row r="4" ht="40.5" customHeight="1" spans="1:7">
+    <row r="4" ht="40.5" spans="1:7">
       <c r="A4" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="B4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C4" s="2"/>
-      <c r="D4"/>
+        <v>46</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D4" t="s">
+        <v>40</v>
+      </c>
       <c r="E4" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="G4"/>
     </row>
-    <row r="5" ht="40.5" customHeight="1" spans="1:7">
+    <row r="5" ht="40.5" spans="1:7">
       <c r="A5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D5" t="s">
         <v>40</v>
       </c>
-      <c r="B5" t="s">
+      <c r="E5" t="s">
         <v>41</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D5" t="s">
-        <v>37</v>
-      </c>
-      <c r="E5"/>
       <c r="F5" s="3" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="G5"/>
     </row>
-    <row r="6" ht="67.5" customHeight="1" spans="1:8">
+    <row r="6" ht="40.5" spans="1:8">
       <c r="A6" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="B6" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>46</v>
+        <v>53</v>
+      </c>
+      <c r="D6" t="s">
+        <v>40</v>
+      </c>
+      <c r="E6" t="s">
+        <v>41</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="G6"/>
       <c r="H6" s="2"/>
     </row>
-    <row r="7" ht="40.5" customHeight="1" spans="1:7">
+    <row r="7" ht="40.5" spans="1:7">
       <c r="A7" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="B7" t="s">
-        <v>48</v>
-      </c>
-      <c r="C7" s="2"/>
-      <c r="D7"/>
-      <c r="E7"/>
+        <v>55</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E7" t="s">
+        <v>41</v>
+      </c>
       <c r="F7" s="3" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="G7"/>
     </row>

--- a/testdatas/clusterinfo.xlsx
+++ b/testdatas/clusterinfo.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27870" windowHeight="13140" activeTab="1"/>
+    <workbookView windowWidth="27870" windowHeight="13140"/>
   </bookViews>
   <sheets>
     <sheet name="新建集群信息" sheetId="1" r:id="rId1"/>
@@ -149,7 +149,7 @@
     <t>修改所属客户</t>
   </si>
   <si>
-    <t>{"miner_id":"f01000011","customer":"test001","machineroom":"machineroom0002","domain":"https://f010000.arsyun.com","size":"32G","comment":"test by terry","is_save":"True"}</t>
+    <t>{"miner_id":"f01000011","customer":"test001-111","machineroom":"machineroom0002","domain":"https://f010000.arsyun.com","size":"32G","comment":"test by terry","is_save":"True"}</t>
   </si>
   <si>
     <t>edit-clusterinfo-003</t>
@@ -158,7 +158,7 @@
     <t>修改所在机房</t>
   </si>
   <si>
-    <t>{"miner_id":"f01000011","customer":"test001","machineroom":"machineroom0003","domain":"https://f010000.arsyun.com","size":"32G","comment":"test by terry","is_save":"True"}</t>
+    <t>{"miner_id":"f01000011","customer":"test001-111","machineroom":"machineroom0003","domain":"https://f010000.arsyun.com","size":"32G","comment":"test by terry","is_save":"True"}</t>
   </si>
   <si>
     <t>edit-clusterinfo-004</t>
@@ -167,7 +167,7 @@
     <t>修改域名</t>
   </si>
   <si>
-    <t>{"miner_id":"f01000011","customer":"test001","machineroom":"machineroom0003","domain":"https://f0100001111.arsyun.com","size":"32G","comment":"test by terry","is_save":"True"}</t>
+    <t>{"miner_id":"f01000011","customer":"test001-111","machineroom":"machineroom0003","domain":"https://f0100001111.arsyun.com","size":"32G","comment":"test by terry","is_save":"True"}</t>
   </si>
   <si>
     <t>edit-clusterinfo-005</t>
@@ -176,7 +176,7 @@
     <t>修改扇区大小</t>
   </si>
   <si>
-    <t>{"miner_id":"f01000011","customer":"test001","machineroom":"machineroom0003","domain":"https://f0100001111.arsyun.com","size":"64G","comment":"test by terry","is_save":"True"}</t>
+    <t>{"miner_id":"f01000011","customer":"test001-111","machineroom":"machineroom0003","domain":"https://f0100001111.arsyun.com","size":"64G","comment":"test by terry","is_save":"True"}</t>
   </si>
   <si>
     <t>edit-clusterinfo-006</t>
@@ -185,7 +185,7 @@
     <t>修改备注</t>
   </si>
   <si>
-    <t>{"miner_id":"f01000011","customer":"test001","machineroom":"machineroom0003","domain":"https://f0100001111.arsyun.com","size":"64G","comment":"modify test by terry","is_save":"True"}</t>
+    <t>{"miner_id":"f01000011","customer":"test001-111","machineroom":"machineroom0003","domain":"https://f0100001111.arsyun.com","size":"64G","comment":"modify test by terry","is_save":"True"}</t>
   </si>
 </sst>
 </file>
@@ -193,10 +193,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -208,14 +208,36 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -223,66 +245,47 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -303,9 +306,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -319,33 +322,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -360,48 +360,168 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -414,133 +534,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -551,17 +551,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -576,6 +565,54 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -606,48 +643,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -659,10 +659,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="2">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0">
@@ -671,16 +671,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
@@ -692,13 +692,13 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
@@ -707,97 +707,97 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="5">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="7">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="2">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="8">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1133,7 +1133,7 @@
   <sheetPr/>
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView zoomScaleSheetLayoutView="60" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -1335,8 +1335,8 @@
   <sheetPr/>
   <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3:F7"/>
+    <sheetView zoomScaleSheetLayoutView="60" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -1395,7 +1395,7 @@
       <c r="G2"/>
       <c r="H2"/>
     </row>
-    <row r="3" ht="40.5" spans="1:8">
+    <row r="3" ht="54" spans="1:8">
       <c r="A3" t="s">
         <v>42</v>
       </c>
@@ -1417,7 +1417,7 @@
       <c r="G3"/>
       <c r="H3"/>
     </row>
-    <row r="4" ht="40.5" spans="1:7">
+    <row r="4" ht="54" spans="1:7">
       <c r="A4" t="s">
         <v>45</v>
       </c>
@@ -1438,7 +1438,7 @@
       </c>
       <c r="G4"/>
     </row>
-    <row r="5" ht="40.5" spans="1:7">
+    <row r="5" ht="54" spans="1:7">
       <c r="A5" t="s">
         <v>48</v>
       </c>
@@ -1459,7 +1459,7 @@
       </c>
       <c r="G5"/>
     </row>
-    <row r="6" ht="40.5" spans="1:8">
+    <row r="6" ht="54" spans="1:8">
       <c r="A6" t="s">
         <v>51</v>
       </c>
@@ -1481,7 +1481,7 @@
       <c r="G6"/>
       <c r="H6" s="2"/>
     </row>
-    <row r="7" ht="40.5" spans="1:7">
+    <row r="7" ht="54" spans="1:7">
       <c r="A7" t="s">
         <v>54</v>
       </c>
